--- a/data/trans_orig/P25C_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>5179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11120</v>
+        <v>11793</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03965166430440659</v>
+        <v>0.03965166430440658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01580794469915715</v>
+        <v>0.01579338928185946</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08513487614965246</v>
+        <v>0.0902865140423028</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -762,19 +762,19 @@
         <v>6767</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3409</v>
+        <v>3551</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11979</v>
+        <v>11750</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.097476945803704</v>
+        <v>0.09747694580370395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04910761770766334</v>
+        <v>0.05114160832674945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1725451607125988</v>
+        <v>0.1692427853973474</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>11947</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6914</v>
+        <v>7440</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18821</v>
+        <v>18643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0597197318163948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0345632490080302</v>
+        <v>0.03719105367984026</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09408334808972396</v>
+        <v>0.09319675808104283</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>125441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>119500</v>
+        <v>118827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128555</v>
+        <v>128557</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9603483356955935</v>
+        <v>0.9603483356955933</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9148651238503477</v>
+        <v>0.9097134859576976</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.984192055300843</v>
+        <v>0.9842066107181406</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -833,19 +833,19 @@
         <v>62658</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57446</v>
+        <v>57675</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66016</v>
+        <v>65874</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9025230541962963</v>
+        <v>0.9025230541962957</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8274548392874014</v>
+        <v>0.8307572146026528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9508923822923369</v>
+        <v>0.9488583916732507</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>230</v>
@@ -854,19 +854,19 @@
         <v>188097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>181223</v>
+        <v>181401</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193130</v>
+        <v>192604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9402802681836052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9059166519102761</v>
+        <v>0.9068032419189574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9654367509919699</v>
+        <v>0.9628089463201597</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>6320</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2384</v>
+        <v>2461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13160</v>
+        <v>12525</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06174909296991909</v>
+        <v>0.06174909296991908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02329662758515105</v>
+        <v>0.02404215329118672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1285814704834456</v>
+        <v>0.1223749758279641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -979,19 +979,19 @@
         <v>4778</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2012</v>
+        <v>2032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8539</v>
+        <v>9182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07603919203756979</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03201562405769018</v>
+        <v>0.03234115963408993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1358940043137215</v>
+        <v>0.1461270543598501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1000,19 +1000,19 @@
         <v>11098</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6284</v>
+        <v>5840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17480</v>
+        <v>18260</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06718495649655341</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03804065740147631</v>
+        <v>0.03535197499532312</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1058191306230871</v>
+        <v>0.1105401168504723</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>96031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>89191</v>
+        <v>89826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99967</v>
+        <v>99890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.938250907030081</v>
+        <v>0.9382509070300808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8714185295165544</v>
+        <v>0.8776250241720356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9767033724148489</v>
+        <v>0.9759578467088132</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -1050,19 +1050,19 @@
         <v>58058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54297</v>
+        <v>53654</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60824</v>
+        <v>60804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9239608079624302</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8641059956862787</v>
+        <v>0.853872945640149</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9679843759423098</v>
+        <v>0.9676588403659101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>191</v>
@@ -1071,19 +1071,19 @@
         <v>154090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147708</v>
+        <v>146928</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>158904</v>
+        <v>159348</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9328150435034467</v>
+        <v>0.9328150435034466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8941808693769134</v>
+        <v>0.8894598831495272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9619593425985243</v>
+        <v>0.9646480250046768</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>6903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2993</v>
+        <v>2901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12698</v>
+        <v>12879</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06574245082007778</v>
+        <v>0.06574245082007776</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02850485719953073</v>
+        <v>0.02762790355290588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1209366707380186</v>
+        <v>0.1226575711692135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4718</v>
+        <v>4791</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06373140872190113</v>
+        <v>0.06373140872190111</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2080218918620284</v>
+        <v>0.2112454203326419</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1217,19 +1217,19 @@
         <v>8348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4143</v>
+        <v>4089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14722</v>
+        <v>14843</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06538519862961023</v>
+        <v>0.06538519862961024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03244589347683678</v>
+        <v>0.0320268265106971</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1153055248262254</v>
+        <v>0.1162523265071636</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>98094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92299</v>
+        <v>92118</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102004</v>
+        <v>102096</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9342575491799222</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8790633292619813</v>
+        <v>0.8773424288307864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9714951428004694</v>
+        <v>0.9723720964470941</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -1267,16 +1267,16 @@
         <v>21236</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17964</v>
+        <v>17891</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>22682</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9362685912780989</v>
+        <v>0.9362685912780987</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7919781081379708</v>
+        <v>0.7887545796673567</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1288,19 +1288,19 @@
         <v>119331</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112957</v>
+        <v>112836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123536</v>
+        <v>123590</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9346148013703898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8846944751737744</v>
+        <v>0.8837476734928362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9675541065231633</v>
+        <v>0.9679731734893029</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>18273</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11576</v>
+        <v>11076</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27444</v>
+        <v>27830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08663251378889057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.054882690805431</v>
+        <v>0.0525101935985453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1301120517674326</v>
+        <v>0.1319438791314376</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>6702</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3315</v>
+        <v>3287</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11607</v>
+        <v>11664</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07874779059607323</v>
+        <v>0.07874779059607324</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03894813797346369</v>
+        <v>0.03861947458861888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1363691926731842</v>
+        <v>0.1370436277205141</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1434,19 +1434,19 @@
         <v>24975</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17567</v>
+        <v>17552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34898</v>
+        <v>35070</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08436563115701305</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05934120977315026</v>
+        <v>0.05929126481556303</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1178846964651507</v>
+        <v>0.1184677552113559</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>192650</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183479</v>
+        <v>183093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199347</v>
+        <v>199847</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9133674862111092</v>
+        <v>0.9133674862111094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8698879482325667</v>
+        <v>0.8680561208685624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.945117309194569</v>
+        <v>0.9474898064014545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -1484,19 +1484,19 @@
         <v>78409</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73504</v>
+        <v>73447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81796</v>
+        <v>81824</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9212522094039267</v>
+        <v>0.9212522094039268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8636308073268157</v>
+        <v>0.8629563722794861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9610518620265366</v>
+        <v>0.9613805254113811</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>338</v>
@@ -1505,19 +1505,19 @@
         <v>271059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>261136</v>
+        <v>260964</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>278467</v>
+        <v>278482</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9156343688429868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8821153035348495</v>
+        <v>0.8815322447886442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9406587902268497</v>
+        <v>0.940708735184437</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>10136</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5067</v>
+        <v>5657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16859</v>
+        <v>17986</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.107552269010305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05376298231919015</v>
+        <v>0.06002447854715943</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.178896215058761</v>
+        <v>0.1908551719345426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1630,19 +1630,19 @@
         <v>9731</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5816</v>
+        <v>6028</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15106</v>
+        <v>15674</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1219250952641699</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07287168880202377</v>
+        <v>0.07552388399251543</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1892602513742497</v>
+        <v>0.1963840629027339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1651,19 +1651,19 @@
         <v>19867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13256</v>
+        <v>13560</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28840</v>
+        <v>28078</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1141431705776151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07616101552961795</v>
+        <v>0.07790544440551961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.165696356652533</v>
+        <v>0.161320453441991</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>84102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77379</v>
+        <v>76252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89171</v>
+        <v>88581</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.892447730989695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8211037849412391</v>
+        <v>0.8091448280654576</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9462370176808097</v>
+        <v>0.9399755214528407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -1701,19 +1701,19 @@
         <v>70084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64709</v>
+        <v>64141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73999</v>
+        <v>73787</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8780749047358301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8107397486257503</v>
+        <v>0.8036159370972663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9271283111979765</v>
+        <v>0.9244761160074845</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -1722,19 +1722,19 @@
         <v>154186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145213</v>
+        <v>145975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160797</v>
+        <v>160493</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.885856829422385</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8343036433474671</v>
+        <v>0.8386795465580088</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.923838984470382</v>
+        <v>0.9220945555944805</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4714</v>
+        <v>4765</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.215039338398753</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7071995146843909</v>
+        <v>0.7147599439986223</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3878</v>
+        <v>3851</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03077071044094212</v>
+        <v>0.03077071044094211</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1016075566744403</v>
+        <v>0.1009054629626995</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1868,19 +1868,19 @@
         <v>2608</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>700</v>
+        <v>674</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6356</v>
+        <v>6730</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05816715850376017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01560674856851093</v>
+        <v>0.01503745723587006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1417610244702356</v>
+        <v>0.150105048972504</v>
       </c>
     </row>
     <row r="20">
@@ -1918,16 +1918,16 @@
         <v>36993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34289</v>
+        <v>34316</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>38167</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9692292895590581</v>
+        <v>0.9692292895590578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.89839244332556</v>
+        <v>0.8990945370373009</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1939,19 +1939,19 @@
         <v>42225</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>38477</v>
+        <v>38103</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44133</v>
+        <v>44159</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9418328414962399</v>
+        <v>0.9418328414962397</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8582389755297646</v>
+        <v>0.849894951027496</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9843932514314891</v>
+        <v>0.98496254276413</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>48244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36281</v>
+        <v>37532</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61939</v>
+        <v>63015</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0742447363500205</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0558340040632357</v>
+        <v>0.05775960690502885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0953200645221685</v>
+        <v>0.09697719527559528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -2064,19 +2064,19 @@
         <v>30599</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22257</v>
+        <v>22039</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40147</v>
+        <v>39558</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08546362985798756</v>
+        <v>0.08546362985798754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06216392364044891</v>
+        <v>0.06155629238090771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1121301204123728</v>
+        <v>0.1104874326035839</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>99</v>
@@ -2085,19 +2085,19 @@
         <v>78843</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62536</v>
+        <v>63501</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>95338</v>
+        <v>94505</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07823028977965596</v>
+        <v>0.07823028977965595</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06205048727081867</v>
+        <v>0.06300720232755257</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09459751580676543</v>
+        <v>0.09377064484838679</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>601552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>587857</v>
+        <v>586781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>613515</v>
+        <v>612264</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9257552636499796</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9046799354778315</v>
+        <v>0.9030228047244038</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9441659959367644</v>
+        <v>0.942240393094971</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>471</v>
@@ -2135,19 +2135,19 @@
         <v>327437</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317889</v>
+        <v>318478</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>335779</v>
+        <v>335997</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9145363701420123</v>
+        <v>0.9145363701420124</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8878698795876271</v>
+        <v>0.889512567396416</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.937836076359551</v>
+        <v>0.9384437076190922</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1166</v>
@@ -2156,19 +2156,19 @@
         <v>928988</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>912493</v>
+        <v>913326</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>945295</v>
+        <v>944330</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.921769710220344</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9054024841932345</v>
+        <v>0.9062293551516131</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9379495127291814</v>
+        <v>0.9369927976724474</v>
       </c>
     </row>
     <row r="24">
